--- a/Test-Cases-URL.xlsx
+++ b/Test-Cases-URL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b69f171f4aec32e/Documents/GithubProjects/Manual-Testing-E-commerce-Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="8_{815BE7B0-3C72-4824-8212-FAF9C84139DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D10C595-C093-46A0-8D06-4DEF83FE1B59}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="8_{815BE7B0-3C72-4824-8212-FAF9C84139DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8D97731-B414-4A07-BB92-566517721856}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6E1B6E8A-1244-4A63-966D-B4892D0CED0D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -197,6 +197,24 @@
   <si>
     <t>1. Enter HTTP URL
 2. Observe address bar</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Application launched successfully in Chrome, Firefox, and Edge</t>
+  </si>
+  <si>
+    <t>Browser displayed error
+ page for invalid URL</t>
+  </si>
+  <si>
+    <t>Homepage loaded 
+within 2.5 seconds</t>
+  </si>
+  <si>
+    <t>Application automatically 
+redirected from HTTP to HTTPS</t>
   </si>
 </sst>
 </file>
@@ -220,7 +238,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,6 +248,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -259,6 +283,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD6D3BF-43B2-46AE-8869-8724C02B6152}">
   <dimension ref="A3:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,12 +633,12 @@
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.7109375" customWidth="1"/>
     <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="43" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" customWidth="1"/>
     <col min="9" max="9" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
     <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -684,13 +711,17 @@
       <c r="I4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -718,11 +749,15 @@
       <c r="I5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -749,6 +784,12 @@
       </c>
       <c r="I6" t="s">
         <v>33</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -779,8 +820,14 @@
       <c r="I7" t="s">
         <v>39</v>
       </c>
+      <c r="J7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -807,6 +854,12 @@
       </c>
       <c r="I8" t="s">
         <v>45</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
